--- a/Doc/mastering_R&R.xlsx
+++ b/Doc/mastering_R&R.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Git_Repo\MTree.Halla\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>KRX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>자산</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ebeset</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J7"/>
+  <dimension ref="A2:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,38 +554,50 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="1">
-        <v>27931470</v>
+        <v>15</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5">
+        <v>45.25</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="4">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
         <v>27931470</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>54</v>
+      </c>
+      <c r="I7" s="4">
+        <v>27931470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f>C4/E4</f>
         <v>8257.7319587628863</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <f>C4/D4</f>
         <v>177.01657458563537</v>
       </c>
-      <c r="H7" s="5">
-        <f>F7*I6</f>
+      <c r="H8" s="5">
+        <f>F8*I7</f>
         <v>230650592474.22681</v>
       </c>
-      <c r="J7" s="4">
-        <f>G4*I6</f>
+      <c r="J8" s="4">
+        <f>G4*I7</f>
         <v>4943870190</v>
       </c>
     </row>
